--- a/medicine/Mort/Décès_en_2024/Décès_en_2024.xlsx
+++ b/medicine/Mort/Décès_en_2024/Décès_en_2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2024</t>
+          <t>Décès_en_2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2024</t>
+          <t>Décès_en_2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,18 +540,199 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-Avril
-Mai
-Juin
-Juillet
-Août
-Septembre
-Octobre
-Novembre
-Décembre</t>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2024</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2024</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
